--- a/document/template/2.group.xlsx
+++ b/document/template/2.group.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chaiyaphonp\งาน\port\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chaiyaphonp\งาน\port\document\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890DF835-85E0-4480-AE62-1AA67BA65D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3F0682-A840-48AF-911E-274EBA8A0334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="บัญชีร่วม_Dec 2022_03012566" sheetId="1" r:id="rId1"/>
+    <sheet name="sheets" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'บัญชีร่วม_Dec 2022_03012566'!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">sheets!$A$1:$K$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -431,7 +431,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2943,9 +2943,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3063,19 +3066,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{963AF94B-3B64-4105-A9A0-6FD15D909624}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAF73A78-711A-4DD9-BBBF-888C18B47F2B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3097,9 +3096,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAF73A78-711A-4DD9-BBBF-888C18B47F2B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{963AF94B-3B64-4105-A9A0-6FD15D909624}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>